--- a/material/translation/TermDefinitions/Person.xlsx
+++ b/material/translation/TermDefinitions/Person.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEEECB7-EC86-4B99-ACC5-CC0083E3705F}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BEA09AD-466A-4E0D-84A9-01400FA96C34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="en" sheetId="2" r:id="rId5"/>
     <sheet name="Terms" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>Term</t>
   </si>
@@ -53,142 +53,181 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>An individual natural person who may be dead or alive, but not imaginary.</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>The day on which the person was born.</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>A gregorian calendar year. The value space of Year is the set of Gregorian calendar years as defined in § 5.2.1 of ISO 8601. Specifically, it is a set of one-year long, non-periodic instances e.g. lexical 1999 to represent the whole year 1999, independent of how many months and days this year has.</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>A gregorian month that recurs every year. The value space of Month is the space of a set of calendar months as defined in § 3 of ISO 8601. Specifically, it is a set of one-month long, yearly periodic instances.</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>A gregorian day that recurs, specifically a day of the month such as the 5th of the month. The value space of Day is the space of a set of calendar dates as defined in § 3 of ISO 8601. Specifically, it is a set of one-day long, monthly periodic instances.</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>The chromosomal state, and reproductive organs and structures of a Person that allows them to be distinguished as female or male or undetermined.</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Place of birth</t>
+  </si>
+  <si>
+    <t>The Location where the person was born.</t>
+  </si>
+  <si>
+    <t>Person name</t>
+  </si>
+  <si>
+    <t>The family name and given name of a Person. At least one of the two must exist.</t>
+  </si>
+  <si>
+    <t>Family name</t>
+  </si>
+  <si>
+    <t>A family name is usually shared by members of a family. This attribute also carries prefixes or suffixes which are part of the family name, e.g. "de Boer", "van de Putte", "von und zu Orlow". Multiple family names, such as are commonly found in Hispanic countries, are recorded in the single family name field so that, for example, Miguel de Cervantes Saavedra's Family Name would be recorded as "de Cervantes Saavedra".</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Given name</t>
+  </si>
+  <si>
+    <t>A given name, or multiple given names, are the denominator(s) that identify an individual within a family. These are given to a Person by his or her parents at birth or may be legally recognised as 'given names' through a formal process. All given names are ordered in one field so that, for example, the given name for Johann Sebastian Bach is 'Johann Sebastian'.</t>
+  </si>
+  <si>
+    <t>Iftikhar</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>The identifier relation is used to link a Person to any formally issued Identifier for that Person.</t>
+  </si>
+  <si>
+    <t>Citizenship</t>
+  </si>
+  <si>
+    <t>The citizenship relationship links a Person to a Jurisdiction that has conferred citizenship rights on the individual such as the right to vote, to receive certain protection from the community or the issuance of a passport.</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>the type of identifier issued (if the authority issues more than one type of identifier).</t>
-  </si>
-  <si>
-    <t>Content - alpha-numeric string</t>
-  </si>
-  <si>
-    <t>The date on which it was issued</t>
-  </si>
-  <si>
-    <t>The issuing agency ID</t>
-  </si>
-  <si>
-    <t>The name of the issuing agency</t>
+    <t>Person/DateOfBirth</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Person/DateOfBirth/Year</t>
+  </si>
+  <si>
+    <t>xsd:gYear</t>
+  </si>
+  <si>
+    <t>Person/DateOfBirth/Month</t>
+  </si>
+  <si>
+    <t>xsd:gMonth</t>
+  </si>
+  <si>
+    <t>Person/DateOfBirth/Day</t>
+  </si>
+  <si>
+    <t>xsd:gDay</t>
+  </si>
+  <si>
+    <t>Person/Gender</t>
+  </si>
+  <si>
+    <t>Person/PlaceOfBirth</t>
+  </si>
+  <si>
+    <t>LocationAddress</t>
+  </si>
+  <si>
+    <t>Person/PersonName</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Person/PersonName/FamilyName</t>
+  </si>
+  <si>
+    <t>cbc:NameType</t>
+  </si>
+  <si>
+    <t>UDT/Name</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Person/PersonName/GivenName</t>
+  </si>
+  <si>
+    <t>cvb:GivenNameType</t>
   </si>
   <si>
     <t>UDT/Text</t>
   </si>
   <si>
-    <t>cvb:IssuingAuthorityIDType</t>
-  </si>
-  <si>
-    <t>UDT/Identifier</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Person/DateOfBirth</t>
-  </si>
-  <si>
-    <t>Person/DateOfBirth/Year</t>
-  </si>
-  <si>
-    <t>Person/DateOfBirth/Month</t>
-  </si>
-  <si>
-    <t>Person/DateOfBirth/Day</t>
-  </si>
-  <si>
-    <t>Person/Gender</t>
-  </si>
-  <si>
-    <t>Person/PlaceOfBirth</t>
-  </si>
-  <si>
-    <t>Person/PersonName</t>
-  </si>
-  <si>
-    <t>Person/PersonName/FamilyName</t>
-  </si>
-  <si>
-    <t>Person/PersonName/GivenName</t>
-  </si>
-  <si>
     <t>Person/Identifier</t>
   </si>
   <si>
     <t>Person/Citizenship</t>
   </si>
   <si>
-    <t>LocationAddress</t>
-  </si>
-  <si>
-    <t>cbc:NameType</t>
-  </si>
-  <si>
-    <t>UDT/Name</t>
-  </si>
-  <si>
-    <t>cvb:GivenNameType</t>
-  </si>
-  <si>
-    <t>Citizenship</t>
-  </si>
-  <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>xsd:gYear</t>
-  </si>
-  <si>
-    <t>xsd:gMonth</t>
-  </si>
-  <si>
-    <t>xsd:gDay</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Place of birth</t>
-  </si>
-  <si>
-    <t>Person name</t>
-  </si>
-  <si>
-    <t>Family name</t>
-  </si>
-  <si>
-    <t>Given name</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>01</t>
+    <t>PersonGenderEnum</t>
   </si>
 </sst>
 </file>
@@ -601,7 +640,7 @@
         <v>Person</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -610,7 +649,7 @@
         <v>Person/DateOfBirth</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -619,7 +658,7 @@
         <v>Person/DateOfBirth/Year</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -628,7 +667,7 @@
         <v>Person/DateOfBirth/Month</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +676,7 @@
         <v>Person/DateOfBirth/Day</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -646,7 +685,7 @@
         <v>Person/Gender</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,7 +694,7 @@
         <v>Person/PlaceOfBirth</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -664,7 +703,7 @@
         <v>Person/PersonName</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,7 +713,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,7 +722,7 @@
         <v>Person/PersonName/GivenName</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,7 +782,7 @@
         <v>Person</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,7 +791,7 @@
         <v>Person/DateOfBirth</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -761,7 +800,7 @@
         <v>Person/DateOfBirth/Year</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,7 +809,7 @@
         <v>Person/DateOfBirth/Month</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +818,7 @@
         <v>Person/DateOfBirth/Day</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -788,7 +827,7 @@
         <v>Person/Gender</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,7 +836,7 @@
         <v>Person/PlaceOfBirth</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,7 +845,7 @@
         <v>Person/PersonName</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -816,7 +855,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,7 +864,7 @@
         <v>Person/PersonName/GivenName</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -885,7 +924,7 @@
         <v>Person</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -894,7 +933,7 @@
         <v>Person/DateOfBirth</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -903,7 +942,7 @@
         <v>Person/DateOfBirth/Year</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -912,7 +951,7 @@
         <v>Person/DateOfBirth/Month</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,7 +960,7 @@
         <v>Person/DateOfBirth/Day</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -930,7 +969,7 @@
         <v>Person/Gender</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -939,7 +978,7 @@
         <v>Person/PlaceOfBirth</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,7 +987,7 @@
         <v>Person/PersonName</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,7 +997,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -967,7 +1006,7 @@
         <v>Person/PersonName/GivenName</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,7 +1071,7 @@
         <v>Person</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1041,7 +1080,7 @@
         <v>Person/DateOfBirth</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,7 +1089,7 @@
         <v>Person/DateOfBirth/Year</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1059,7 +1098,7 @@
         <v>Person/DateOfBirth/Month</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,7 +1107,7 @@
         <v>Person/DateOfBirth/Day</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1077,7 +1116,7 @@
         <v>Person/Gender</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,7 +1125,7 @@
         <v>Person/PlaceOfBirth</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1095,7 +1134,7 @@
         <v>Person/PersonName</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,7 +1144,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,7 +1153,7 @@
         <v>Person/PersonName/GivenName</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,14 +1181,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="65.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="3"/>
   </cols>
@@ -1177,7 +1218,13 @@
         <v>Person</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1186,58 +1233,85 @@
         <v>Person/DateOfBirth</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Terms!A4</f>
         <v>Person/DateOfBirth/Year</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Terms!A5</f>
         <v>Person/DateOfBirth/Month</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Terms!A6</f>
         <v>Person/DateOfBirth/Day</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Terms!A7</f>
         <v>Person/Gender</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1246,58 +1320,94 @@
         <v>Person/PlaceOfBirth</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Terms!A9</f>
         <v>Person/PersonName</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>Terms!A10</f>
         <v>Person/PersonName/FamilyName</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>Terms!A11</f>
         <v>Person/PersonName/GivenName</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>Terms!A12</f>
         <v>Person/Identifier</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>Terms!A13</f>
         <v>Person/Citizenship</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f>Terms!A14</f>
-        <v>0</v>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1420,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,145 +1432,142 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1474,12 +1581,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x0101007E289342E878A3439E8711FFF848F32F" ma:contentTypeVersion="11" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="46ceb6b1ca17f648485ffad8d87a7461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="387b4333-7bd0-482a-b673-9a586eb2ceee" xmlns:ns3="4aa09831-7f3d-42ba-9b8c-49994d1626d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a21b98261e948a646c8dae0c6b0aefd5" ns2:_="" ns3:_="">
     <xsd:import namespace="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
@@ -1690,16 +1806,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D21B558-1CC2-49FC-A1E6-EF48DA3E2AEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4DB1E3-ED74-4131-A145-E5AAC4244613}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1708,29 +1823,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FD51D8-5A43-457B-8F0A-FAD11D35BC87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D21B558-1CC2-49FC-A1E6-EF48DA3E2AEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FA4F8F-5C07-45CD-8E1D-0DAF128C7283}"/>
 </file>